--- a/data/test1.xlsx
+++ b/data/test1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>case_id</t>
   </si>
@@ -28,18 +28,6 @@
   <si>
     <t>result</t>
   </si>
-  <si>
-    <t>https://www.xuegean.com/xyxb/groupCenter/userGroupList</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>https://www.xuegean.com/xyxb/specialColumnCenter/getStudyFinish</t>
-  </si>
-  <si>
-    <t>{'groupCode':'196F0b9C1b282Da069DA0488b64834C0'}</t>
-  </si>
 </sst>
 </file>
 
@@ -47,9 +35,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -69,6 +57,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -77,14 +72,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,10 +92,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,7 +109,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,14 +139,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -172,6 +160,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -191,14 +187,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,19 +201,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,67 +357,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,91 +375,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,6 +392,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -418,30 +439,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,17 +461,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,31 +492,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="3">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -522,16 +510,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -540,121 +528,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
@@ -1006,15 +997,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="59.7166666666667" customWidth="1"/>
+    <col min="2" max="2" width="69.0333333333333" customWidth="1"/>
     <col min="3" max="3" width="48.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1036,29 +1027,220 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.xuegean.com/xyxb/groupCenter/userGroupList"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://www.xuegean.com/xyxb/specialColumnCenter/getStudyFinish"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
